--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3802083.041813112</v>
+        <v>3779504.818223174</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1182106.997854756</v>
+        <v>1182106.997854757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510726.169435092</v>
+        <v>510726.1694350902</v>
       </c>
     </row>
     <row r="9">
@@ -656,31 +656,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.59093260596836</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>235.9477392089838</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>29.8892983910557</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210.1515323233967</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.6450016938487</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>75.94512170722869</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>97.88959590290915</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>216.6533621007967</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>250.3284900238532</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>46.85701230642421</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.2940166796957</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>197.9453049499732</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5.632598604764548</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C11" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D11" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F11" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G11" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H11" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I11" t="n">
-        <v>33.3249898601934</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>67.51083621917468</v>
       </c>
       <c r="T11" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U11" t="n">
-        <v>161.1737578526523</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V11" t="n">
         <v>237.7612281981694</v>
@@ -1436,7 +1436,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I12" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914855</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676733</v>
       </c>
       <c r="S12" t="n">
         <v>149.2146408812902</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997174</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666415</v>
+        <v>77.25579082666248</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6244427462468</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460361</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096569</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G13" t="n">
-        <v>76.98582764574803</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H13" t="n">
-        <v>63.21968069866691</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I13" t="n">
-        <v>34.9620471463378</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70377341497085</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S13" t="n">
         <v>116.3521968385658</v>
@@ -1582,7 +1582,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V13" t="n">
         <v>162.1466130518625</v>
@@ -1591,10 +1591,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X13" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T14" t="n">
         <v>123.2081244353881</v>
@@ -1667,7 +1667,7 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W14" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454488</v>
       </c>
       <c r="X14" t="n">
         <v>279.7400704065035</v>
@@ -1704,7 +1704,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S15" t="n">
         <v>149.2146408812902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D16" t="n">
-        <v>58.62444274624686</v>
+        <v>58.624442746247</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460367</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096611</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G16" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497091</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S16" t="n">
         <v>116.3521968385658</v>
@@ -1862,7 +1862,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019352</v>
+        <v>33.32498986019341</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>123.2081244353881</v>
       </c>
       <c r="U17" t="n">
-        <v>161.1737578526514</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V17" t="n">
         <v>237.7612281981694</v>
@@ -2008,7 +2008,7 @@
         <v>58.62444274624688</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460379</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F19" t="n">
         <v>55.43001775096577</v>
@@ -2050,7 +2050,7 @@
         <v>41.70377341497093</v>
       </c>
       <c r="S19" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385657</v>
       </c>
       <c r="T19" t="n">
         <v>133.6214948185866</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>292.7428113915151</v>
+        <v>292.7428113915162</v>
       </c>
       <c r="C20" t="n">
         <v>275.2818614990421</v>
@@ -2099,7 +2099,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2178,7 +2178,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I21" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S21" t="n">
         <v>149.2146408812902</v>
@@ -2254,10 +2254,10 @@
         <v>76.98582764574812</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633794</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S22" t="n">
         <v>116.3521968385658</v>
@@ -2296,7 +2296,7 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W22" t="n">
         <v>196.5319680646255</v>
@@ -2378,13 +2378,13 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2499384454479</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X23" t="n">
         <v>279.7400704065035</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840879</v>
       </c>
     </row>
     <row r="24">
@@ -2488,10 +2488,10 @@
         <v>55.43001775096577</v>
       </c>
       <c r="G25" t="n">
-        <v>76.98582764574812</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H25" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I25" t="n">
         <v>34.96204714633787</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497103</v>
       </c>
       <c r="S25" t="n">
-        <v>116.3521968385657</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T25" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695762</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V25" t="n">
         <v>162.1466130518625</v>
@@ -2555,7 +2555,7 @@
         <v>292.742811391515</v>
       </c>
       <c r="C26" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D26" t="n">
         <v>264.6920113487174</v>
@@ -2573,7 +2573,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019337</v>
+        <v>33.32498986019341</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917468</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T26" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353886</v>
       </c>
       <c r="U26" t="n">
         <v>161.1737578526518</v>
@@ -2621,7 +2621,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997174</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666228</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D28" t="n">
-        <v>58.6244427462468</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460361</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096569</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574803</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866691</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714634035</v>
+        <v>34.96204714633783</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497085</v>
+        <v>41.70377341497089</v>
       </c>
       <c r="S28" t="n">
         <v>116.3521968385658</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185877</v>
       </c>
       <c r="U28" t="n">
         <v>196.2726833695756</v>
@@ -2779,7 +2779,7 @@
         <v>135.7186251170716</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C29" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D29" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E29" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F29" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G29" t="n">
-        <v>323.05089745293</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H29" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019341</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>67.51083621917468</v>
       </c>
       <c r="T29" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U29" t="n">
         <v>161.1737578526514</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D31" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G31" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866717</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633786</v>
+        <v>34.96204714633783</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497092</v>
+        <v>41.70377341497089</v>
       </c>
       <c r="S31" t="n">
         <v>116.3521968385658</v>
@@ -3004,16 +3004,16 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U31" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V31" t="n">
-        <v>162.1466130518625</v>
+        <v>162.146613051864</v>
       </c>
       <c r="W31" t="n">
         <v>196.5319680646255</v>
       </c>
       <c r="X31" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y31" t="n">
         <v>128.5936230801293</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C32" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D32" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E32" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F32" t="n">
-        <v>316.8850154697459</v>
+        <v>316.8850154697455</v>
       </c>
       <c r="G32" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I32" t="n">
-        <v>33.3249898601934</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917445</v>
       </c>
       <c r="T32" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U32" t="n">
-        <v>161.1737578526523</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V32" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W32" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X32" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997177</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666231</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D34" t="n">
-        <v>58.62444274624683</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460364</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096572</v>
+        <v>55.4300177509658</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574806</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866693</v>
+        <v>63.21968069866701</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633782</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497088</v>
+        <v>41.70377341497097</v>
       </c>
       <c r="S34" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T34" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U34" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V34" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W34" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X34" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795007</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917448</v>
       </c>
       <c r="T35" t="n">
         <v>123.2081244353881</v>
@@ -3323,7 +3323,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V35" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W35" t="n">
         <v>259.2499384454476</v>
@@ -3332,7 +3332,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D37" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574775</v>
+        <v>76.98582764574817</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866705</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633793</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497099</v>
       </c>
       <c r="S37" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385648</v>
       </c>
       <c r="T37" t="n">
         <v>133.6214948185867</v>
@@ -3481,16 +3481,16 @@
         <v>196.2726833695757</v>
       </c>
       <c r="V37" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W37" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X37" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y37" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>275.2818614990421</v>
       </c>
       <c r="D38" t="n">
-        <v>264.6920113487175</v>
+        <v>264.692011348717</v>
       </c>
       <c r="E38" t="n">
         <v>291.9393398002964</v>
@@ -3518,10 +3518,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H38" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917448</v>
       </c>
       <c r="T38" t="n">
         <v>123.2081244353881</v>
@@ -3560,7 +3560,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V38" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W38" t="n">
         <v>259.2499384454476</v>
@@ -3569,7 +3569,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.2469083840879</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D40" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574816</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866703</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497095</v>
+        <v>41.7037734149708</v>
       </c>
       <c r="S40" t="n">
         <v>116.3521968385659</v>
       </c>
       <c r="T40" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185868</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695752</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V40" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W40" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X40" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>350.5768261319324</v>
+        <v>350.5768261319322</v>
       </c>
       <c r="C41" t="n">
-        <v>333.1158762394594</v>
+        <v>333.1158762394592</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>322.5260260891346</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1124324441174</v>
+        <v>349.7733545407134</v>
       </c>
       <c r="F41" t="n">
-        <v>374.7190302101633</v>
+        <v>374.7190302101631</v>
       </c>
       <c r="G41" t="n">
-        <v>380.8849121933464</v>
+        <v>380.8849121933462</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>91.15900460061054</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3448509595917</v>
+        <v>98.58075591324307</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0421391758054</v>
+        <v>181.0421391758052</v>
       </c>
       <c r="U41" t="n">
-        <v>219.0077725930691</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>295.5952429385868</v>
+        <v>295.5952429385865</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0839531858649</v>
+        <v>317.0839531858646</v>
       </c>
       <c r="X41" t="n">
-        <v>337.5740851469209</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.0809231245054</v>
+        <v>354.0809231245052</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>147.6749646503889</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>116.458457486664</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>121.0536954390841</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>99.53778815538826</v>
+        <v>99.53778815538803</v>
       </c>
       <c r="S43" t="n">
-        <v>174.1862115789832</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.455509559004</v>
+        <v>191.4555095590037</v>
       </c>
       <c r="U43" t="n">
-        <v>254.106698109993</v>
+        <v>254.1066981099928</v>
       </c>
       <c r="V43" t="n">
-        <v>219.9806277922798</v>
+        <v>219.9806277922796</v>
       </c>
       <c r="W43" t="n">
-        <v>37.41824902479082</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>193.552639857489</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>19.96998288512873</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>350.5768261319323</v>
+        <v>350.5768261319322</v>
       </c>
       <c r="C44" t="n">
-        <v>287.4229264678714</v>
+        <v>333.1158762394592</v>
       </c>
       <c r="D44" t="n">
-        <v>322.5260260891347</v>
+        <v>322.5260260891346</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>349.7733545407134</v>
       </c>
       <c r="F44" t="n">
-        <v>374.7190302101632</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>263.4169942177817</v>
       </c>
       <c r="H44" t="n">
-        <v>284.1642683199183</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3448509595916</v>
+        <v>125.3448509595915</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0421391758053</v>
+        <v>181.0421391758052</v>
       </c>
       <c r="U44" t="n">
-        <v>219.007772593069</v>
+        <v>219.0077725930689</v>
       </c>
       <c r="V44" t="n">
-        <v>295.5952429385866</v>
+        <v>295.5952429385865</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0839531858647</v>
+        <v>317.0839531858646</v>
       </c>
       <c r="X44" t="n">
-        <v>337.5740851469208</v>
+        <v>337.5740851469207</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.0809231245053</v>
+        <v>354.0809231245052</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.032894012029266</v>
+        <v>147.6749646503889</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>135.0898055670795</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>116.458457486664</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>114.2769471150208</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>134.8198423861652</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>121.0536954390841</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>92.79606188675496</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>99.53778815538814</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>174.1862115789831</v>
+        <v>174.1862115789829</v>
       </c>
       <c r="T46" t="n">
-        <v>191.4555095590038</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>254.1066981099929</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>254.3659828050427</v>
+        <v>133.8817379677896</v>
       </c>
       <c r="X46" t="n">
-        <v>193.5526398574889</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.7454097505996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>281.7454097505996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>281.7454097505996</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>281.7454097505996</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729607</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729607</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4422,7 +4422,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,13 +4434,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>933.8659450146204</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>705.6423267510095</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V3" t="n">
         <v>470.4902185192667</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.2027203719481</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>254.2858631377404</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.203140025706</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C6" t="n">
-        <v>314.750110744579</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>865.178775810728</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>865.178775810728</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>865.178775810728</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>865.178775810728</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>865.178775810728</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>657.4184770457741</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4705,25 +4705,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.36872346920693</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="C8" t="n">
-        <v>43.36872346920693</v>
+        <v>568.2253115112497</v>
       </c>
       <c r="D8" t="n">
-        <v>43.36872346920693</v>
+        <v>568.2253115112497</v>
       </c>
       <c r="E8" t="n">
-        <v>43.36872346920693</v>
+        <v>568.2253115112497</v>
       </c>
       <c r="F8" t="n">
-        <v>36.42322272000345</v>
+        <v>302.3242671156266</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613337</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
         <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T8" t="n">
-        <v>828.0278728906086</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U8" t="n">
-        <v>828.0278728906086</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V8" t="n">
-        <v>562.1268284949851</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W8" t="n">
-        <v>309.2697678648304</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X8" t="n">
-        <v>309.2697678648304</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="Y8" t="n">
-        <v>309.2697678648304</v>
+        <v>787.0670914110444</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>676.9925000216467</v>
+        <v>318.9776426505744</v>
       </c>
       <c r="C9" t="n">
-        <v>502.5394707405197</v>
+        <v>318.9776426505744</v>
       </c>
       <c r="D9" t="n">
-        <v>353.6050610792685</v>
+        <v>318.9776426505744</v>
       </c>
       <c r="E9" t="n">
-        <v>306.2747456182339</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="F9" t="n">
         <v>159.7401876451189</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683224</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K9" t="n">
-        <v>24.95018035683224</v>
+        <v>99.14400600940573</v>
       </c>
       <c r="L9" t="n">
-        <v>79.33446981177667</v>
+        <v>339.7475339042683</v>
       </c>
       <c r="M9" t="n">
-        <v>339.9440834239272</v>
+        <v>600.3571475164185</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360777</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285699</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806669</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806669</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806669</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806669</v>
+        <v>726.6826938902486</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806669</v>
+        <v>726.6826938902486</v>
       </c>
       <c r="W9" t="n">
-        <v>1052.968135806669</v>
+        <v>526.7379414155282</v>
       </c>
       <c r="X9" t="n">
-        <v>1052.968135806669</v>
+        <v>526.7379414155282</v>
       </c>
       <c r="Y9" t="n">
-        <v>845.2078370417148</v>
+        <v>318.9776426505744</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706541</v>
+        <v>176.8194339304876</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>979.7795239352599</v>
       </c>
       <c r="F11" t="n">
-        <v>659.6936497233954</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G11" t="n">
-        <v>333.379611892154</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H11" t="n">
         <v>104.7631941350823</v>
@@ -5048,37 +5048,37 @@
         <v>1170.239882220686</v>
       </c>
       <c r="M11" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N11" t="n">
         <v>2385.446588068709</v>
       </c>
       <c r="O11" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P11" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q11" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R11" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S11" t="n">
         <v>3486.886646926997</v>
       </c>
       <c r="T11" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U11" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V11" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.600738915221</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X11" t="n">
         <v>2415.035011231885</v>
@@ -5127,16 +5127,16 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M12" t="n">
-        <v>1615.986515717316</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N12" t="n">
-        <v>1810.237260669286</v>
+        <v>2271.96827169264</v>
       </c>
       <c r="O12" t="n">
-        <v>2343.916732697218</v>
+        <v>2415.724047636611</v>
       </c>
       <c r="P12" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q12" t="n">
         <v>2662.220283762224</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634051</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132393</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D13" t="n">
-        <v>361.0414928786466</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0284298739965</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538291</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2750506853967</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H13" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I13" t="n">
         <v>71.10158821569499</v>
@@ -5200,13 +5200,13 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L13" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N13" t="n">
         <v>1160.182765121766</v>
@@ -5218,31 +5218,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q13" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R13" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S13" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T13" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U13" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V13" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0247572019633</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X13" t="n">
-        <v>718.935236881689</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.0426883159018</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>979.7795239352602</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H14" t="n">
         <v>104.7631941350823</v>
@@ -5279,16 +5279,16 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723841</v>
+        <v>636.959017072384</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M14" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N14" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O14" t="n">
         <v>2911.753343601288</v>
@@ -5297,19 +5297,19 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S14" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T14" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V14" t="n">
         <v>2959.469363607594</v>
@@ -5343,7 +5343,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F15" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G15" t="n">
         <v>220.9013999505779</v>
@@ -5358,22 +5358,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4180455050167</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L15" t="n">
-        <v>730.4004058670015</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M15" t="n">
-        <v>1354.165931074864</v>
+        <v>1521.502829199033</v>
       </c>
       <c r="N15" t="n">
-        <v>2010.147687050187</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O15" t="n">
-        <v>2343.916732697218</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P15" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q15" t="n">
         <v>2662.220283762224</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.294254063404</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C16" t="n">
-        <v>420.25810171324</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D16" t="n">
-        <v>361.0414928786472</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E16" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F16" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G16" t="n">
         <v>170.2750506853968</v>
@@ -5440,10 +5440,10 @@
         <v>322.4370930476438</v>
       </c>
       <c r="L16" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M16" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N16" t="n">
         <v>1160.182765121766</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C17" t="n">
         <v>1542.033413984769</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I17" t="n">
         <v>71.10158821569499</v>
@@ -5528,7 +5528,7 @@
         <v>2385.446588068709</v>
       </c>
       <c r="O17" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P17" t="n">
         <v>3323.269600003673</v>
@@ -5592,25 +5592,25 @@
         <v>963.9607152382214</v>
       </c>
       <c r="J18" t="n">
-        <v>1076.363186856787</v>
+        <v>963.9607152382214</v>
       </c>
       <c r="K18" t="n">
-        <v>1395.097757169996</v>
+        <v>1282.695285551431</v>
       </c>
       <c r="L18" t="n">
-        <v>1885.080117531981</v>
+        <v>1772.677645913416</v>
       </c>
       <c r="M18" t="n">
-        <v>2508.845642739843</v>
+        <v>2396.443171121278</v>
       </c>
       <c r="N18" t="n">
-        <v>3164.827398715167</v>
+        <v>2985.718457680727</v>
       </c>
       <c r="O18" t="n">
-        <v>3308.583174659137</v>
+        <v>3129.474233624697</v>
       </c>
       <c r="P18" t="n">
-        <v>3404.626792343976</v>
+        <v>3540.795992263074</v>
       </c>
       <c r="Q18" t="n">
         <v>3555.07941078475</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786471</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E19" t="n">
         <v>304.0284298739968</v>
@@ -5698,7 +5698,7 @@
         <v>1669.080268457736</v>
       </c>
       <c r="S19" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T19" t="n">
         <v>1416.581590016168</v>
@@ -5710,13 +5710,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X19" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1820.095900347438</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D20" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352606</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F20" t="n">
-        <v>659.693649723396</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G20" t="n">
         <v>333.3796118921542</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I20" t="n">
         <v>71.101588215695</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220687</v>
@@ -5795,7 +5795,7 @@
         <v>2415.035011231887</v>
       </c>
       <c r="Y20" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>71.101588215695</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7784287706955</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L21" t="n">
-        <v>689.7607891326803</v>
+        <v>879.8185188908892</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.526314340543</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N21" t="n">
-        <v>1494.959119715748</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O21" t="n">
-        <v>2028.63859174368</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P21" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q21" t="n">
         <v>2662.220283762224</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634039</v>
+        <v>2342.168372738932</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132399</v>
+        <v>2264.132220388768</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786471</v>
+        <v>2204.915611554175</v>
       </c>
       <c r="E22" t="n">
-        <v>304.0284298739969</v>
+        <v>2147.902548549524</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538294</v>
+        <v>2091.912631629357</v>
       </c>
       <c r="G22" t="n">
-        <v>170.275050685397</v>
+        <v>2014.149169360924</v>
       </c>
       <c r="H22" t="n">
-        <v>106.4167873534101</v>
+        <v>1950.290906028938</v>
       </c>
       <c r="I22" t="n">
-        <v>71.101588215695</v>
+        <v>1914.975706891222</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7485218715119</v>
+        <v>1982.622640547039</v>
       </c>
       <c r="K22" t="n">
-        <v>322.4370930476438</v>
+        <v>2166.311211723171</v>
       </c>
       <c r="L22" t="n">
-        <v>588.106816402122</v>
+        <v>2431.98093507765</v>
       </c>
       <c r="M22" t="n">
-        <v>873.7644385885117</v>
+        <v>2717.638557264039</v>
       </c>
       <c r="N22" t="n">
-        <v>1160.182765121766</v>
+        <v>3004.056883797293</v>
       </c>
       <c r="O22" t="n">
-        <v>1415.521203172265</v>
+        <v>3259.395321847792</v>
       </c>
       <c r="P22" t="n">
-        <v>1623.34494164282</v>
+        <v>3467.219060318347</v>
       </c>
       <c r="Q22" t="n">
-        <v>1711.205292109222</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R22" t="n">
-        <v>1669.080268457736</v>
+        <v>3512.954387133264</v>
       </c>
       <c r="S22" t="n">
-        <v>1551.552796903629</v>
+        <v>3395.426915579158</v>
       </c>
       <c r="T22" t="n">
-        <v>1416.581590016168</v>
+        <v>3260.455708691696</v>
       </c>
       <c r="U22" t="n">
-        <v>1218.326354289324</v>
+        <v>3062.200472964852</v>
       </c>
       <c r="V22" t="n">
-        <v>1054.54189666118</v>
+        <v>2898.416015336708</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019624</v>
+        <v>2699.89887587749</v>
       </c>
       <c r="X22" t="n">
-        <v>718.935236881688</v>
+        <v>2562.809355557216</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159007</v>
+        <v>2432.916806991429</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K23" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L23" t="n">
         <v>1170.239882220687</v>
@@ -5999,22 +5999,22 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N23" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O23" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P23" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q23" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R23" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S23" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T23" t="n">
         <v>3362.433995982161</v>
@@ -6069,16 +6069,16 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K24" t="n">
-        <v>502.2386301474696</v>
+        <v>240.4180455050167</v>
       </c>
       <c r="L24" t="n">
-        <v>625.0890486590298</v>
+        <v>730.4004058670015</v>
       </c>
       <c r="M24" t="n">
-        <v>1248.854573866892</v>
+        <v>1354.165931074864</v>
       </c>
       <c r="N24" t="n">
-        <v>1810.237260669286</v>
+        <v>2010.147687050187</v>
       </c>
       <c r="O24" t="n">
         <v>2343.916732697218</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D25" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F25" t="n">
         <v>248.0385129538293</v>
       </c>
       <c r="G25" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H25" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
         <v>138.7485218715119</v>
@@ -6154,7 +6154,7 @@
         <v>588.106816402122</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121766</v>
@@ -6169,13 +6169,13 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R25" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S25" t="n">
         <v>1551.55279690363</v>
       </c>
       <c r="T25" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U25" t="n">
         <v>1218.326354289324</v>
@@ -6187,10 +6187,10 @@
         <v>856.0247572019623</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816877</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352606</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233954</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G26" t="n">
-        <v>333.379611892154</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H26" t="n">
-        <v>104.7631941350822</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I26" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2363626397087</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K26" t="n">
-        <v>636.9590170723832</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L26" t="n">
         <v>1170.239882220686</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.5698188245173</v>
+        <v>1880.428945847043</v>
       </c>
       <c r="C27" t="n">
-        <v>813.1167895433903</v>
+        <v>1705.975916565916</v>
       </c>
       <c r="D27" t="n">
-        <v>664.182379882139</v>
+        <v>1557.041506904665</v>
       </c>
       <c r="E27" t="n">
-        <v>504.9449248766836</v>
+        <v>1397.804051899209</v>
       </c>
       <c r="F27" t="n">
-        <v>358.4103669035686</v>
+        <v>1251.269493926094</v>
       </c>
       <c r="G27" t="n">
-        <v>220.9013999505779</v>
+        <v>1113.760526973103</v>
       </c>
       <c r="H27" t="n">
-        <v>119.3328447905925</v>
+        <v>1012.191971813118</v>
       </c>
       <c r="I27" t="n">
-        <v>71.10158821569499</v>
+        <v>963.9607152382205</v>
       </c>
       <c r="J27" t="n">
-        <v>183.5040598342603</v>
+        <v>1076.363186856786</v>
       </c>
       <c r="K27" t="n">
-        <v>502.2386301474696</v>
+        <v>1141.343261005132</v>
       </c>
       <c r="L27" t="n">
-        <v>992.2209905094544</v>
+        <v>1631.325621367117</v>
       </c>
       <c r="M27" t="n">
-        <v>1154.938502604817</v>
+        <v>2255.091146574979</v>
       </c>
       <c r="N27" t="n">
-        <v>1810.92025858014</v>
+        <v>2911.072902550302</v>
       </c>
       <c r="O27" t="n">
-        <v>2028.63859174368</v>
+        <v>3444.752374578235</v>
       </c>
       <c r="P27" t="n">
-        <v>2439.960350382057</v>
+        <v>3540.795992263073</v>
       </c>
       <c r="Q27" t="n">
-        <v>2662.220283762224</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R27" t="n">
-        <v>2636.91315967458</v>
+        <v>3529.772286697105</v>
       </c>
       <c r="S27" t="n">
-        <v>2486.191300198529</v>
+        <v>3379.050427221055</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.929652613338</v>
+        <v>3181.788779635864</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.786419775016</v>
+        <v>2953.645546797542</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.634311543273</v>
+        <v>2718.493438565799</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.396954815072</v>
+        <v>2464.256081837598</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.545454609539</v>
+        <v>2256.404581632065</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.785155844585</v>
+        <v>2048.644282867111</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634058</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132419</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786491</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E28" t="n">
-        <v>304.028429873999</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F28" t="n">
-        <v>248.0385129538317</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853993</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4167873534125</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I28" t="n">
         <v>71.10158821569499</v>
@@ -6388,46 +6388,46 @@
         <v>322.4370930476439</v>
       </c>
       <c r="L28" t="n">
-        <v>588.1068164021224</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885121</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N28" t="n">
         <v>1160.182765121766</v>
       </c>
       <c r="O28" t="n">
-        <v>1415.521203172266</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P28" t="n">
         <v>1623.34494164282</v>
       </c>
       <c r="Q28" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R28" t="n">
-        <v>1669.080268457738</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S28" t="n">
-        <v>1551.552796903631</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.58159001617</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U28" t="n">
-        <v>1218.326354289326</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.541896661182</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.024757201964</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816897</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159025</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352612</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233966</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G29" t="n">
         <v>333.3796118921541</v>
@@ -6461,37 +6461,37 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J29" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397087</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723832</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N29" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O29" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P29" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q29" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R29" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S29" t="n">
         <v>3486.886646926997</v>
       </c>
       <c r="T29" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U29" t="n">
         <v>3199.632220373422</v>
@@ -6503,10 +6503,10 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y29" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J30" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K30" t="n">
-        <v>389.8361585289043</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L30" t="n">
-        <v>530.4899794861002</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M30" t="n">
-        <v>1154.255504693962</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.237260669286</v>
+        <v>2018.213775527776</v>
       </c>
       <c r="O30" t="n">
-        <v>2343.916732697218</v>
+        <v>2551.893247555709</v>
       </c>
       <c r="P30" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q30" t="n">
         <v>2662.220283762224</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634039</v>
+        <v>2342.16837273893</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132399</v>
+        <v>2264.132220388766</v>
       </c>
       <c r="D31" t="n">
-        <v>361.0414928786471</v>
+        <v>2204.915611554173</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739969</v>
+        <v>2147.902548549523</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538295</v>
+        <v>2091.912631629355</v>
       </c>
       <c r="G31" t="n">
-        <v>170.275050685397</v>
+        <v>2014.149169360923</v>
       </c>
       <c r="H31" t="n">
-        <v>106.41678735341</v>
+        <v>1950.290906028936</v>
       </c>
       <c r="I31" t="n">
-        <v>71.10158821569499</v>
+        <v>1914.975706891222</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7485218715119</v>
+        <v>1982.622640547038</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476438</v>
+        <v>2166.31121172317</v>
       </c>
       <c r="L31" t="n">
-        <v>588.1068164021221</v>
+        <v>2431.980935077649</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885117</v>
+        <v>2717.638557264038</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.182765121766</v>
+        <v>3004.056883797292</v>
       </c>
       <c r="O31" t="n">
-        <v>1415.521203172265</v>
+        <v>3259.395321847791</v>
       </c>
       <c r="P31" t="n">
-        <v>1623.34494164282</v>
+        <v>3467.219060318346</v>
       </c>
       <c r="Q31" t="n">
-        <v>1711.205292109222</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.080268457737</v>
+        <v>3512.954387133263</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.55279690363</v>
+        <v>3395.426915579157</v>
       </c>
       <c r="T31" t="n">
-        <v>1416.581590016168</v>
+        <v>3260.455708691696</v>
       </c>
       <c r="U31" t="n">
-        <v>1218.326354289324</v>
+        <v>3062.200472964852</v>
       </c>
       <c r="V31" t="n">
-        <v>1054.54189666118</v>
+        <v>2898.416015336706</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019624</v>
+        <v>2699.898875877489</v>
       </c>
       <c r="X31" t="n">
-        <v>718.935236881688</v>
+        <v>2562.809355557214</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159007</v>
+        <v>2432.916806991427</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1274.667745955761</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H32" t="n">
         <v>104.7631941350823</v>
@@ -6698,7 +6698,7 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J32" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K32" t="n">
         <v>636.9590170723837</v>
@@ -6710,10 +6710,10 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N32" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O32" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P32" t="n">
         <v>3323.269600003673</v>
@@ -6728,7 +6728,7 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U32" t="n">
         <v>3199.632220373421</v>
@@ -6737,10 +6737,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X32" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y32" t="n">
         <v>2115.795709833817</v>
@@ -6783,19 +6783,19 @@
         <v>389.8361585289043</v>
       </c>
       <c r="L33" t="n">
-        <v>512.6865770404645</v>
+        <v>879.8185188908891</v>
       </c>
       <c r="M33" t="n">
-        <v>1136.452102248327</v>
+        <v>1046.953878598915</v>
       </c>
       <c r="N33" t="n">
-        <v>1494.959119715748</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O33" t="n">
-        <v>2028.63859174368</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P33" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q33" t="n">
         <v>2662.220283762224</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634035</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D34" t="n">
-        <v>361.0414928786467</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739966</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H34" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I34" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L34" t="n">
         <v>588.1068164021221</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885119</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N34" t="n">
         <v>1160.182765121766</v>
@@ -6877,31 +6877,31 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q34" t="n">
-        <v>1711.205292109221</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
-        <v>1669.080268457735</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S34" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T34" t="n">
-        <v>1416.581590016167</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V34" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019617</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X34" t="n">
-        <v>718.9352368816874</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159003</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D35" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233953</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921538</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I35" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L35" t="n">
         <v>1170.239882220686</v>
@@ -6956,10 +6956,10 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S35" t="n">
         <v>3486.886646926997</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.5698188245173</v>
+        <v>1880.428945847044</v>
       </c>
       <c r="C36" t="n">
-        <v>813.1167895433903</v>
+        <v>1705.975916565917</v>
       </c>
       <c r="D36" t="n">
-        <v>664.182379882139</v>
+        <v>1557.041506904666</v>
       </c>
       <c r="E36" t="n">
-        <v>504.9449248766836</v>
+        <v>1397.80405189921</v>
       </c>
       <c r="F36" t="n">
-        <v>358.4103669035686</v>
+        <v>1251.269493926095</v>
       </c>
       <c r="G36" t="n">
-        <v>220.9013999505779</v>
+        <v>1113.760526973104</v>
       </c>
       <c r="H36" t="n">
-        <v>119.3328447905925</v>
+        <v>1012.191971813119</v>
       </c>
       <c r="I36" t="n">
-        <v>71.10158821569499</v>
+        <v>963.9607152382214</v>
       </c>
       <c r="J36" t="n">
-        <v>71.10158821569499</v>
+        <v>1076.363186856787</v>
       </c>
       <c r="K36" t="n">
-        <v>248.4841339826061</v>
+        <v>1133.277172527543</v>
       </c>
       <c r="L36" t="n">
-        <v>738.4664943445908</v>
+        <v>1623.259532889528</v>
       </c>
       <c r="M36" t="n">
-        <v>1362.232019552453</v>
+        <v>2247.02505809739</v>
       </c>
       <c r="N36" t="n">
-        <v>2018.213775527776</v>
+        <v>2595.794761596765</v>
       </c>
       <c r="O36" t="n">
-        <v>2551.893247555709</v>
+        <v>3129.474233624697</v>
       </c>
       <c r="P36" t="n">
-        <v>2647.936865240548</v>
+        <v>3540.795992263074</v>
       </c>
       <c r="Q36" t="n">
-        <v>2662.220283762224</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R36" t="n">
-        <v>2636.91315967458</v>
+        <v>3529.772286697106</v>
       </c>
       <c r="S36" t="n">
-        <v>2486.191300198529</v>
+        <v>3379.050427221055</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.929652613338</v>
+        <v>3181.788779635865</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.786419775016</v>
+        <v>2953.645546797543</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.634311543273</v>
+        <v>2718.4934385658</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.396954815072</v>
+        <v>2464.256081837599</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.545454609539</v>
+        <v>2256.404581632066</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.785155844585</v>
+        <v>2048.644282867112</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634043</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132402</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786467</v>
+        <v>361.0414928786473</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739965</v>
+        <v>304.028429873997</v>
       </c>
       <c r="F37" t="n">
-        <v>248.038512953829</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853969</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H37" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I37" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L37" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q37" t="n">
         <v>1711.205292109222</v>
@@ -7120,25 +7120,25 @@
         <v>1669.080268457736</v>
       </c>
       <c r="S37" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T37" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V37" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019629</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816884</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159012</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>659.6936497233958</v>
       </c>
       <c r="G38" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921543</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I38" t="n">
         <v>71.10158821569499</v>
@@ -7193,10 +7193,10 @@
         <v>3323.269600003673</v>
       </c>
       <c r="Q38" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R38" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S38" t="n">
         <v>3486.886646926997</v>
@@ -7254,22 +7254,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K39" t="n">
-        <v>323.1296891130304</v>
+        <v>128.0155738864514</v>
       </c>
       <c r="L39" t="n">
-        <v>813.1120494750152</v>
+        <v>617.9979342484362</v>
       </c>
       <c r="M39" t="n">
-        <v>1436.877574682877</v>
+        <v>1241.763459456298</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.859330658201</v>
+        <v>1897.745215431622</v>
       </c>
       <c r="O39" t="n">
-        <v>2236.615106602171</v>
+        <v>2431.424687459554</v>
       </c>
       <c r="P39" t="n">
-        <v>2647.936865240548</v>
+        <v>2527.468305144393</v>
       </c>
       <c r="Q39" t="n">
         <v>2662.220283762224</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634039</v>
+        <v>2342.168372738932</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132399</v>
+        <v>2264.132220388768</v>
       </c>
       <c r="D40" t="n">
-        <v>361.041492878647</v>
+        <v>2204.915611554175</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739968</v>
+        <v>2147.902548549524</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538293</v>
+        <v>2091.912631629357</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853969</v>
+        <v>2014.149169360924</v>
       </c>
       <c r="H40" t="n">
-        <v>106.41678735341</v>
+        <v>1950.290906028937</v>
       </c>
       <c r="I40" t="n">
-        <v>71.10158821569499</v>
+        <v>1914.975706891222</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715119</v>
+        <v>1982.622640547039</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476437</v>
+        <v>2166.311211723171</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021219</v>
+        <v>2431.98093507765</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885113</v>
+        <v>2717.638557264039</v>
       </c>
       <c r="N40" t="n">
-        <v>1160.182765121765</v>
+        <v>3004.056883797293</v>
       </c>
       <c r="O40" t="n">
-        <v>1415.521203172265</v>
+        <v>3259.395321847792</v>
       </c>
       <c r="P40" t="n">
-        <v>1623.344941642819</v>
+        <v>3467.219060318347</v>
       </c>
       <c r="Q40" t="n">
-        <v>1711.205292109222</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R40" t="n">
-        <v>1669.080268457736</v>
+        <v>3512.954387133264</v>
       </c>
       <c r="S40" t="n">
-        <v>1551.552796903629</v>
+        <v>3395.426915579157</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.581590016168</v>
+        <v>3260.455708691696</v>
       </c>
       <c r="U40" t="n">
-        <v>1218.326354289324</v>
+        <v>3062.200472964852</v>
       </c>
       <c r="V40" t="n">
-        <v>1054.54189666118</v>
+        <v>2898.416015336707</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019623</v>
+        <v>2699.898875877489</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816878</v>
+        <v>2562.809355557215</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159007</v>
+        <v>2432.916806991429</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1352.7503266875</v>
+        <v>1941.988662835318</v>
       </c>
       <c r="C41" t="n">
-        <v>1016.269643617339</v>
+        <v>1605.507979765157</v>
       </c>
       <c r="D41" t="n">
-        <v>1016.269643617339</v>
+        <v>1279.724115028658</v>
       </c>
       <c r="E41" t="n">
-        <v>834.3378936737856</v>
+        <v>926.4176963006645</v>
       </c>
       <c r="F41" t="n">
-        <v>455.8338227544288</v>
+        <v>547.9136253813078</v>
       </c>
       <c r="G41" t="n">
-        <v>71.10158821569499</v>
+        <v>163.1813908425743</v>
       </c>
       <c r="H41" t="n">
-        <v>71.10158821569499</v>
+        <v>163.1813908425743</v>
       </c>
       <c r="I41" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L41" t="n">
         <v>1170.239882220686</v>
       </c>
       <c r="M41" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N41" t="n">
         <v>2385.446588068709</v>
@@ -7436,25 +7436,25 @@
         <v>3555.079410784749</v>
       </c>
       <c r="S41" t="n">
-        <v>3428.468450219505</v>
+        <v>3455.502889660261</v>
       </c>
       <c r="T41" t="n">
-        <v>3245.597602567176</v>
+        <v>3272.632042007933</v>
       </c>
       <c r="U41" t="n">
-        <v>3024.377630250945</v>
+        <v>3272.632042007933</v>
       </c>
       <c r="V41" t="n">
-        <v>2725.796576777625</v>
+        <v>2974.050988534613</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.509755377761</v>
+        <v>2653.76416713475</v>
       </c>
       <c r="X41" t="n">
-        <v>2064.525830986932</v>
+        <v>2653.76416713475</v>
       </c>
       <c r="Y41" t="n">
-        <v>1706.868332881371</v>
+        <v>2296.106669029189</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.5698188245173</v>
+        <v>1880.428945847043</v>
       </c>
       <c r="C42" t="n">
-        <v>813.1167895433903</v>
+        <v>1705.975916565916</v>
       </c>
       <c r="D42" t="n">
-        <v>664.182379882139</v>
+        <v>1557.041506904665</v>
       </c>
       <c r="E42" t="n">
-        <v>504.9449248766836</v>
+        <v>1397.804051899209</v>
       </c>
       <c r="F42" t="n">
-        <v>358.4103669035686</v>
+        <v>1251.269493926094</v>
       </c>
       <c r="G42" t="n">
-        <v>220.9013999505779</v>
+        <v>1113.760526973103</v>
       </c>
       <c r="H42" t="n">
-        <v>119.3328447905925</v>
+        <v>1012.191971813118</v>
       </c>
       <c r="I42" t="n">
-        <v>71.10158821569499</v>
+        <v>963.9607152382205</v>
       </c>
       <c r="J42" t="n">
-        <v>71.10158821569499</v>
+        <v>1076.363186856786</v>
       </c>
       <c r="K42" t="n">
-        <v>389.8361585289043</v>
+        <v>1133.277172527542</v>
       </c>
       <c r="L42" t="n">
-        <v>530.4899794861002</v>
+        <v>1316.047480413578</v>
       </c>
       <c r="M42" t="n">
-        <v>1154.255504693962</v>
+        <v>1939.81300562144</v>
       </c>
       <c r="N42" t="n">
-        <v>1810.237260669286</v>
+        <v>2595.794761596764</v>
       </c>
       <c r="O42" t="n">
-        <v>2343.916732697218</v>
+        <v>3129.474233624696</v>
       </c>
       <c r="P42" t="n">
-        <v>2439.960350382057</v>
+        <v>3540.795992263073</v>
       </c>
       <c r="Q42" t="n">
-        <v>2662.220283762224</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R42" t="n">
-        <v>2636.91315967458</v>
+        <v>3529.772286697105</v>
       </c>
       <c r="S42" t="n">
-        <v>2486.191300198529</v>
+        <v>3379.050427221055</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.929652613338</v>
+        <v>3181.788779635864</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.786419775016</v>
+        <v>2953.645546797542</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.634311543273</v>
+        <v>2718.493438565799</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.396954815072</v>
+        <v>2464.256081837598</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.545454609539</v>
+        <v>2256.404581632065</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.785155844585</v>
+        <v>2048.644282867111</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.10158821569499</v>
+        <v>311.0128537972587</v>
       </c>
       <c r="C43" t="n">
-        <v>71.10158821569499</v>
+        <v>311.0128537972587</v>
       </c>
       <c r="D43" t="n">
-        <v>71.10158821569499</v>
+        <v>193.3780482551739</v>
       </c>
       <c r="E43" t="n">
-        <v>71.10158821569499</v>
+        <v>193.3780482551739</v>
       </c>
       <c r="F43" t="n">
-        <v>71.10158821569499</v>
+        <v>193.3780482551739</v>
       </c>
       <c r="G43" t="n">
-        <v>71.10158821569499</v>
+        <v>193.3780482551739</v>
       </c>
       <c r="H43" t="n">
         <v>71.10158821569499</v>
@@ -7567,52 +7567,52 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>81.49284727849872</v>
+        <v>81.49284727849894</v>
       </c>
       <c r="K43" t="n">
-        <v>207.9257438616175</v>
+        <v>207.9257438616179</v>
       </c>
       <c r="L43" t="n">
-        <v>416.3397926230826</v>
+        <v>416.3397926230833</v>
       </c>
       <c r="M43" t="n">
-        <v>644.7417402164591</v>
+        <v>644.74174021646</v>
       </c>
       <c r="N43" t="n">
-        <v>873.9043921567002</v>
+        <v>873.9043921567013</v>
       </c>
       <c r="O43" t="n">
-        <v>1071.987155614186</v>
+        <v>1071.987155614187</v>
       </c>
       <c r="P43" t="n">
-        <v>1222.555219491728</v>
+        <v>1222.555219491729</v>
       </c>
       <c r="Q43" t="n">
-        <v>1253.159895365117</v>
+        <v>1253.159895365119</v>
       </c>
       <c r="R43" t="n">
-        <v>1152.616675006139</v>
+        <v>1152.616675006141</v>
       </c>
       <c r="S43" t="n">
-        <v>976.6710067445401</v>
+        <v>1152.616675006141</v>
       </c>
       <c r="T43" t="n">
-        <v>783.2816031495867</v>
+        <v>959.2272714111881</v>
       </c>
       <c r="U43" t="n">
-        <v>526.6081707152503</v>
+        <v>702.5538389768519</v>
       </c>
       <c r="V43" t="n">
-        <v>304.405516379614</v>
+        <v>480.3511846412159</v>
       </c>
       <c r="W43" t="n">
-        <v>266.6093052434617</v>
+        <v>480.3511846412159</v>
       </c>
       <c r="X43" t="n">
-        <v>71.10158821569499</v>
+        <v>480.3511846412159</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.10158821569499</v>
+        <v>460.1794847572475</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1352.750326687501</v>
+        <v>1352.750326687502</v>
       </c>
       <c r="C44" t="n">
-        <v>1062.424138336115</v>
+        <v>1016.269643617341</v>
       </c>
       <c r="D44" t="n">
-        <v>736.6402735996157</v>
+        <v>690.4857788808415</v>
       </c>
       <c r="E44" t="n">
-        <v>736.6402735996157</v>
+        <v>337.1793601528482</v>
       </c>
       <c r="F44" t="n">
-        <v>358.136202680259</v>
+        <v>337.1793601528482</v>
       </c>
       <c r="G44" t="n">
-        <v>358.136202680259</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="H44" t="n">
         <v>71.10158821569499</v>
@@ -7646,16 +7646,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K44" t="n">
         <v>636.9590170723837</v>
       </c>
       <c r="L44" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M44" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N44" t="n">
         <v>2385.446588068709</v>
@@ -7682,16 +7682,16 @@
         <v>3024.377630250945</v>
       </c>
       <c r="V44" t="n">
-        <v>2725.796576777625</v>
+        <v>2725.796576777626</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.509755377762</v>
+        <v>2405.509755377763</v>
       </c>
       <c r="X44" t="n">
-        <v>2064.525830986933</v>
+        <v>2064.525830986934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1706.868332881372</v>
+        <v>1706.868332881373</v>
       </c>
     </row>
     <row r="45">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.10158821569499</v>
+        <v>792.8135173881884</v>
       </c>
       <c r="C46" t="n">
-        <v>71.10158821569499</v>
+        <v>656.3591683305324</v>
       </c>
       <c r="D46" t="n">
-        <v>71.10158821569499</v>
+        <v>538.7243627884476</v>
       </c>
       <c r="E46" t="n">
-        <v>71.10158821569499</v>
+        <v>423.2931030763053</v>
       </c>
       <c r="F46" t="n">
-        <v>71.10158821569499</v>
+        <v>423.2931030763053</v>
       </c>
       <c r="G46" t="n">
-        <v>71.10158821569499</v>
+        <v>287.1114441003809</v>
       </c>
       <c r="H46" t="n">
-        <v>71.10158821569499</v>
+        <v>164.834984060902</v>
       </c>
       <c r="I46" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>81.49284727849883</v>
+        <v>81.49284727849894</v>
       </c>
       <c r="K46" t="n">
-        <v>207.9257438616177</v>
+        <v>207.9257438616179</v>
       </c>
       <c r="L46" t="n">
-        <v>416.339792623083</v>
+        <v>416.3397926230833</v>
       </c>
       <c r="M46" t="n">
-        <v>644.7417402164596</v>
+        <v>644.74174021646</v>
       </c>
       <c r="N46" t="n">
-        <v>873.9043921567006</v>
+        <v>873.9043921567013</v>
       </c>
       <c r="O46" t="n">
         <v>1071.987155614187</v>
@@ -7825,31 +7825,31 @@
         <v>1222.555219491729</v>
       </c>
       <c r="Q46" t="n">
-        <v>1253.159895365118</v>
+        <v>1253.159895365119</v>
       </c>
       <c r="R46" t="n">
-        <v>1152.61667500614</v>
+        <v>1253.159895365119</v>
       </c>
       <c r="S46" t="n">
-        <v>976.6710067445412</v>
+        <v>1077.21422710352</v>
       </c>
       <c r="T46" t="n">
-        <v>783.2816031495878</v>
+        <v>1077.21422710352</v>
       </c>
       <c r="U46" t="n">
-        <v>526.6081707152515</v>
+        <v>1077.21422710352</v>
       </c>
       <c r="V46" t="n">
-        <v>526.6081707152515</v>
+        <v>1077.21422710352</v>
       </c>
       <c r="W46" t="n">
-        <v>269.6728345485416</v>
+        <v>941.9801483481772</v>
       </c>
       <c r="X46" t="n">
-        <v>74.16511752077506</v>
+        <v>941.9801483481772</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.16511752077506</v>
+        <v>941.9801483481772</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236086</v>
+        <v>204.7914546585314</v>
       </c>
       <c r="L9" t="n">
-        <v>182.7401044550569</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.833774309385</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808122</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>130.8188201934041</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868108</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,16 +8778,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>12.94741371390316</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>137.5446463829276</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>370.2669965598146</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>191.9325956596576</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>12.5531852206459</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9252,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>411.9621022063067</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>137.5446463829271</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>12.5531852206459</v>
+        <v>12.55318522064589</v>
       </c>
       <c r="K21" t="n">
-        <v>72.48773220630713</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>18.0997829295776</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>383.787759017362</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>191.9325956596576</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>8.147564118777225</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>74.70965375714141</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>17.98323479357137</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>223.0247014497518</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>4.462472336024177</v>
       </c>
       <c r="N33" t="n">
-        <v>178.8628404971876</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>121.68541423854</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>169.0271698223929</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10902,7 @@
         <v>12.5531852206459</v>
       </c>
       <c r="K39" t="n">
-        <v>197.0849648753323</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>121.68541423854</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>12.5531852206459</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>17.98323479357137</v>
+        <v>60.52514078229865</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>322.5260260891348</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6609220965962</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>284.1642683199184</v>
+        <v>284.1642683199182</v>
       </c>
       <c r="I41" t="n">
-        <v>91.15900460061077</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>26.76409504634843</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>219.0077725930689</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>337.5740851469207</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.6749646503891</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>135.0898055670797</v>
+        <v>135.0898055670795</v>
       </c>
       <c r="D43" t="n">
-        <v>116.4584574866642</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.276947115021</v>
+        <v>114.2769471150208</v>
       </c>
       <c r="F43" t="n">
-        <v>113.2640324913831</v>
+        <v>113.2640324913829</v>
       </c>
       <c r="G43" t="n">
-        <v>134.8198423861654</v>
+        <v>134.8198423861652</v>
       </c>
       <c r="H43" t="n">
-        <v>121.0536954390843</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92.79606188675518</v>
+        <v>92.79606188675496</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>174.1862115789829</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>216.947733780252</v>
+        <v>254.3659828050426</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>193.5526398574888</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.4276378205466</v>
+        <v>166.4576549354177</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>45.69294977158785</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>349.7733545407135</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>374.7190302101631</v>
       </c>
       <c r="G44" t="n">
-        <v>380.8849121933463</v>
+        <v>117.4679179755645</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>284.1642683199182</v>
       </c>
       <c r="I44" t="n">
-        <v>91.15900460061066</v>
+        <v>91.15900460061054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.6420706383598</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>135.0898055670796</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>116.4584574866641</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>114.2769471150209</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>113.264032491383</v>
+        <v>113.2640324913829</v>
       </c>
       <c r="G46" t="n">
-        <v>134.8198423861653</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>121.0536954390842</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.79606188675507</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>99.53778815538803</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.4555095590037</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>254.1066981099928</v>
       </c>
       <c r="V46" t="n">
-        <v>219.9806277922797</v>
+        <v>219.9806277922796</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>120.484244837253</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>193.5526398574888</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.4276378205465</v>
+        <v>186.4276378205464</v>
       </c>
     </row>
   </sheetData>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>597907.6269402819</v>
+        <v>597907.6269402824</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>597907.6269402822</v>
+        <v>597907.6269402823</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
+        <v>800515.7256176751</v>
+      </c>
+      <c r="F2" t="n">
         <v>800515.725617675</v>
       </c>
-      <c r="F2" t="n">
-        <v>800515.7256176746</v>
-      </c>
       <c r="G2" t="n">
-        <v>800515.7256176751</v>
+        <v>800515.7256176752</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.725617675</v>
+        <v>800515.7256176749</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.7256176749</v>
+        <v>800515.7256176745</v>
       </c>
       <c r="K2" t="n">
         <v>800515.725617675</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176749</v>
       </c>
-      <c r="M2" t="n">
-        <v>800515.7256176748</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="O2" t="n">
-        <v>700924.1225778327</v>
+        <v>700924.1225778331</v>
       </c>
       <c r="P2" t="n">
         <v>700924.1225778332</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266359</v>
+        <v>26613.58757266329</v>
       </c>
       <c r="E3" t="n">
-        <v>692087.5638592205</v>
+        <v>692087.5638592208</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135052.7668166787</v>
+        <v>135052.7668166786</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525759</v>
+        <v>5625.642228525658</v>
       </c>
       <c r="M3" t="n">
-        <v>155884.0345424093</v>
+        <v>155884.0345424095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25725.61242523867</v>
+        <v>25725.61242523879</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318217.3071073982</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="C4" t="n">
-        <v>318217.3071073982</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>310100.0638036125</v>
+        <v>312850.0144568523</v>
       </c>
       <c r="E4" t="n">
-        <v>130004.9505500885</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="F4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448204</v>
       </c>
       <c r="G4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="H4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448204</v>
       </c>
       <c r="I4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="J4" t="n">
-        <v>130004.9505500885</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="K4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="L4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="M4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448204</v>
       </c>
       <c r="N4" t="n">
-        <v>130004.9505500884</v>
+        <v>132680.0433448204</v>
       </c>
       <c r="O4" t="n">
-        <v>71561.0342665366</v>
+        <v>74236.1270612689</v>
       </c>
       <c r="P4" t="n">
-        <v>71561.03426653674</v>
+        <v>74236.12706126891</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="F5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="G5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="H5" t="n">
         <v>73862.46925788875</v>
@@ -26506,10 +26506,10 @@
         <v>73862.46925788873</v>
       </c>
       <c r="O5" t="n">
-        <v>69000.42147267659</v>
+        <v>69000.42147267661</v>
       </c>
       <c r="P5" t="n">
-        <v>69000.42147267659</v>
+        <v>69000.42147267661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353247.718214969</v>
+        <v>350502.0723320115</v>
       </c>
       <c r="C6" t="n">
-        <v>434017.1497465168</v>
+        <v>431271.5038635586</v>
       </c>
       <c r="D6" t="n">
-        <v>413667.6668345669</v>
+        <v>410917.716181327</v>
       </c>
       <c r="E6" t="n">
-        <v>-95439.25804952272</v>
+        <v>-98114.35084425494</v>
       </c>
       <c r="F6" t="n">
-        <v>596648.3058096975</v>
+        <v>593973.2130149659</v>
       </c>
       <c r="G6" t="n">
-        <v>596648.305809698</v>
+        <v>593973.213014966</v>
       </c>
       <c r="H6" t="n">
-        <v>596648.3058096978</v>
+        <v>593973.2130149658</v>
       </c>
       <c r="I6" t="n">
-        <v>596648.3058096996</v>
+        <v>593973.2130149673</v>
       </c>
       <c r="J6" t="n">
-        <v>461595.5389930189</v>
+        <v>458920.4461982867</v>
       </c>
       <c r="K6" t="n">
-        <v>596648.305809698</v>
+        <v>593973.2130149658</v>
       </c>
       <c r="L6" t="n">
-        <v>591022.663581172</v>
+        <v>588347.5707864419</v>
       </c>
       <c r="M6" t="n">
-        <v>440764.2712672882</v>
+        <v>438089.1784725562</v>
       </c>
       <c r="N6" t="n">
-        <v>596648.3058096995</v>
+        <v>593973.2130149674</v>
       </c>
       <c r="O6" t="n">
-        <v>534637.0544133808</v>
+        <v>531961.9616186488</v>
       </c>
       <c r="P6" t="n">
-        <v>560362.66683862</v>
+        <v>557687.5740438878</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G2" t="n">
         <v>89.99103027196547</v>
@@ -26707,25 +26707,25 @@
         <v>89.99103027196547</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L2" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O2" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="P2" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223249</v>
       </c>
       <c r="F3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="G3" t="n">
         <v>562.3764353223249</v>
       </c>
       <c r="H3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="I3" t="n">
         <v>562.3764353223249</v>
@@ -26793,13 +26793,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="G4" t="n">
         <v>888.7698526961874</v>
@@ -26808,22 +26808,22 @@
         <v>888.7698526961875</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="J4" t="n">
         <v>888.7698526961873</v>
       </c>
       <c r="K4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="L4" t="n">
         <v>888.7698526961873</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="N4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="O4" t="n">
         <v>888.7698526961873</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196564</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32.15701553154833</v>
+        <v>32.15701553154849</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>539.3630526355349</v>
+        <v>539.3630526355353</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="E4" t="n">
-        <v>625.5278187445201</v>
+        <v>625.5278187445206</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.227745074008</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>625.5278187445201</v>
+        <v>625.5278187445207</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196564</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>625.5278187445201</v>
+        <v>625.5278187445206</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,31 +27376,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.1429090575122</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>179.3549983061512</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27506,16 +27506,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>109.1580142581785</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.5823093400838</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>2.450847870282644</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>96.76337728108705</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,19 +27704,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>102.2751327919125</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.4918077118134</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>148.6195296702108</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921148</v>
       </c>
       <c r="I8" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846774</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>98.91247869355982</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>110.7880681489767</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>170.7637213332854</v>
@@ -27986,13 +27986,13 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>53.7496782109464</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>8.114410708933292</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366963</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>222.1356745962581</v>
       </c>
       <c r="U10" t="n">
         <v>286.3167657450791</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954707</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196418</v>
       </c>
       <c r="X14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="17">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196441</v>
       </c>
       <c r="C20" t="n">
         <v>89.99103027196547</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S20" t="n">
         <v>89.99103027196547</v>
@@ -29098,13 +29098,13 @@
         <v>89.99103027196547</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196509</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X23" t="n">
         <v>89.99103027196547</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196566</v>
       </c>
     </row>
     <row r="24">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196594</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.9910302719636</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196594</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196566</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196594</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196566</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="C41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="D41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="E41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="F41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="G41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="H41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="I41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="T41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="U41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="V41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="W41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="X41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="C43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="D43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="E43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="F43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="G43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="H43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="I43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="J43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="K43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="M43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="N43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="O43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="P43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="R43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="S43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="T43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="U43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="V43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="W43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="X43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.15701553154815</v>
+        <v>32.15701553154839</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="C44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="D44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="E44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="F44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="G44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="H44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="I44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="T44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="U44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="V44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="W44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="X44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="C46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="D46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="E46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="F46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="G46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="H46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="I46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="J46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="K46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="M46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="N46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="O46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="P46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="R46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="S46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="T46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="U46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="V46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="W46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="X46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.15701553154828</v>
+        <v>32.15701553154839</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418822</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,25 +31750,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H11" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I11" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824699</v>
       </c>
       <c r="J11" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K11" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553053</v>
       </c>
       <c r="L11" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805676</v>
       </c>
       <c r="N11" t="n">
         <v>403.4019428970884</v>
@@ -31777,19 +31777,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1072738488219</v>
+        <v>325.107273848822</v>
       </c>
       <c r="Q11" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R11" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510546</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777795</v>
       </c>
       <c r="U11" t="n">
         <v>0.18086478321924</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H12" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I12" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J12" t="n">
         <v>114.2844414460208</v>
@@ -31850,28 +31850,28 @@
         <v>306.495157250667</v>
       </c>
       <c r="N12" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O12" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587578</v>
+        <v>75.1037813058758</v>
       </c>
       <c r="S12" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483174</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617809</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807117</v>
       </c>
       <c r="I13" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068394</v>
       </c>
       <c r="K13" t="n">
         <v>117.8224728429395</v>
@@ -31938,19 +31938,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367106</v>
       </c>
       <c r="R13" t="n">
-        <v>45.59858769023307</v>
+        <v>45.59858769023308</v>
       </c>
       <c r="S13" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729387</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973694</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I14" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J14" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L14" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N14" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O14" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R14" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T14" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U14" t="n">
         <v>0.18086478321924</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H15" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I15" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J15" t="n">
         <v>114.2844414460208</v>
@@ -32084,31 +32084,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M15" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N15" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S15" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,19 +32148,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J16" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K16" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L16" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M16" t="n">
         <v>158.9681454797188</v>
@@ -32175,19 +32175,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R16" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S16" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,43 +32464,43 @@
         <v>2.260809790240501</v>
       </c>
       <c r="H20" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I20" t="n">
-        <v>87.15986943824699</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J20" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K20" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L20" t="n">
-        <v>356.7727409733781</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M20" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N20" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O20" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P20" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R20" t="n">
         <v>142.015592986195</v>
       </c>
       <c r="S20" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T20" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U20" t="n">
         <v>0.18086478321924</v>
@@ -32558,13 +32558,13 @@
         <v>262.645711609733</v>
       </c>
       <c r="M21" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N21" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P21" t="n">
         <v>230.9881626515414</v>
@@ -32573,16 +32573,16 @@
         <v>154.4094695624618</v>
       </c>
       <c r="R21" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S21" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T21" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H22" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I22" t="n">
         <v>30.49739750895494</v>
       </c>
       <c r="J22" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K22" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L22" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M22" t="n">
         <v>158.9681454797188</v>
@@ -32649,19 +32649,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R22" t="n">
-        <v>45.59858769023308</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S22" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T22" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988751</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>74.94325823492279</v>
       </c>
       <c r="L9" t="n">
-        <v>54.93362571206509</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031301</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K11" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814895</v>
       </c>
       <c r="L11" t="n">
         <v>538.6675405538413</v>
@@ -35419,13 +35419,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O11" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P11" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650351</v>
       </c>
       <c r="Q11" t="n">
         <v>234.1513240212892</v>
@@ -35495,19 +35495,19 @@
         <v>494.931677133318</v>
       </c>
       <c r="M12" t="n">
-        <v>630.0661870786486</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N12" t="n">
-        <v>196.212873688858</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655884</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P12" t="n">
-        <v>97.01375523721109</v>
+        <v>234.5584016201387</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644025</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.33023601597671</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K13" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L13" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M13" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N13" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O13" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P13" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394222</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L14" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M14" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O14" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P14" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5378501197629</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K15" t="n">
-        <v>57.4888744149055</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L15" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786486</v>
+        <v>534.6281198884634</v>
       </c>
       <c r="N15" t="n">
-        <v>662.6078343185084</v>
+        <v>183.265459974955</v>
       </c>
       <c r="O15" t="n">
-        <v>337.1404501485165</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P15" t="n">
-        <v>97.01375523721109</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644028</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>185.5440112890221</v>
       </c>
       <c r="L16" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M16" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N16" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O16" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P16" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>321.9541114274841</v>
@@ -35972,16 +35972,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185084</v>
+        <v>595.2275621812615</v>
       </c>
       <c r="O18" t="n">
         <v>145.207854488859</v>
       </c>
       <c r="P18" t="n">
-        <v>97.01375523721114</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9723418593674</v>
+        <v>14.42769547644025</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K20" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L20" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M20" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N20" t="n">
         <v>611.3358037124817</v>
       </c>
       <c r="O20" t="n">
-        <v>531.6229853864432</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P20" t="n">
-        <v>415.6729862650351</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>129.9766066212127</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L21" t="n">
         <v>494.931677133318</v>
@@ -36209,16 +36209,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N21" t="n">
-        <v>183.2654599749549</v>
+        <v>201.3652429045326</v>
       </c>
       <c r="O21" t="n">
-        <v>539.0701737655885</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P21" t="n">
         <v>415.4765238771483</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644028</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L22" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M22" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N22" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O22" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P22" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K24" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L24" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N24" t="n">
-        <v>567.0532189923168</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O24" t="n">
-        <v>539.0701737655885</v>
+        <v>337.1404501485165</v>
       </c>
       <c r="P24" t="n">
         <v>97.01375523721114</v>
@@ -36613,7 +36613,7 @@
         <v>415.6729862650351</v>
       </c>
       <c r="Q26" t="n">
-        <v>234.1513240212892</v>
+        <v>234.151324021289</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K27" t="n">
-        <v>321.9541114274841</v>
+        <v>65.63643853368275</v>
       </c>
       <c r="L27" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>164.3611233286487</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N27" t="n">
         <v>662.6078343185084</v>
       </c>
       <c r="O27" t="n">
-        <v>219.9175082460004</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P27" t="n">
-        <v>415.4765238771483</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644025</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597672</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890222</v>
@@ -36759,19 +36759,19 @@
         <v>268.3532559136145</v>
       </c>
       <c r="M28" t="n">
-        <v>288.543052713525</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N28" t="n">
-        <v>289.3114409426811</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O28" t="n">
-        <v>257.9176141924235</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P28" t="n">
-        <v>209.9229681520756</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394223</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K30" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L30" t="n">
-        <v>142.0745666234302</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M30" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N30" t="n">
-        <v>662.6078343185084</v>
+        <v>406.2901614247067</v>
       </c>
       <c r="O30" t="n">
         <v>539.0701737655885</v>
@@ -36929,7 +36929,7 @@
         <v>97.01375523721114</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644025</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L31" t="n">
         <v>268.3532559136145</v>
       </c>
       <c r="M31" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N31" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O31" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P31" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L33" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M33" t="n">
-        <v>630.0661870786487</v>
+        <v>168.8235956646729</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1283004721425</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O33" t="n">
         <v>539.0701737655885</v>
@@ -37166,7 +37166,7 @@
         <v>415.4765238771483</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644025</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597669</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K34" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L34" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M34" t="n">
-        <v>288.543052713525</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N34" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O34" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P34" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394027</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K35" t="n">
         <v>391.6390448814895</v>
@@ -37312,7 +37312,7 @@
         <v>538.6675405538413</v>
       </c>
       <c r="M35" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N35" t="n">
         <v>611.3358037124817</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K36" t="n">
-        <v>179.1742886534455</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L36" t="n">
         <v>494.931677133318</v>
@@ -37394,13 +37394,13 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N36" t="n">
-        <v>662.6078343185084</v>
+        <v>352.2926297973478</v>
       </c>
       <c r="O36" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P36" t="n">
-        <v>97.01375523721114</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q36" t="n">
         <v>14.42769547644025</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37473,7 +37473,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N37" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O37" t="n">
         <v>257.9176141924233</v>
@@ -37482,7 +37482,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>538.6675405538413</v>
       </c>
       <c r="M38" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N38" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124818</v>
       </c>
       <c r="O38" t="n">
         <v>531.622985386443</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>254.5738392902378</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L39" t="n">
         <v>494.931677133318</v>
@@ -37634,13 +37634,13 @@
         <v>662.6078343185084</v>
       </c>
       <c r="O39" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P39" t="n">
-        <v>415.4765238771483</v>
+        <v>97.01375523721114</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.42769547644025</v>
+        <v>136.1131097149803</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
@@ -37710,7 +37710,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N40" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O40" t="n">
         <v>257.9176141924233</v>
@@ -37719,7 +37719,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>531.622985386443</v>
       </c>
       <c r="P41" t="n">
-        <v>415.6729862650351</v>
+        <v>415.6729862650348</v>
       </c>
       <c r="Q41" t="n">
         <v>234.1513240212892</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K42" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490552</v>
       </c>
       <c r="L42" t="n">
-        <v>142.0745666234302</v>
+        <v>184.6164726121575</v>
       </c>
       <c r="M42" t="n">
         <v>630.0661870786487</v>
@@ -37874,10 +37874,10 @@
         <v>539.0701737655885</v>
       </c>
       <c r="P42" t="n">
-        <v>97.01375523721114</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644025</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>10.49622127555931</v>
+        <v>10.49622127555956</v>
       </c>
       <c r="K43" t="n">
-        <v>127.7099965486048</v>
+        <v>127.7099965486051</v>
       </c>
       <c r="L43" t="n">
-        <v>210.5192411731971</v>
+        <v>210.5192411731973</v>
       </c>
       <c r="M43" t="n">
-        <v>230.7090379731075</v>
+        <v>230.7090379731078</v>
       </c>
       <c r="N43" t="n">
-        <v>231.4774262022636</v>
+        <v>231.4774262022639</v>
       </c>
       <c r="O43" t="n">
-        <v>200.083599452006</v>
+        <v>200.0835994520063</v>
       </c>
       <c r="P43" t="n">
-        <v>152.0889534116581</v>
+        <v>152.0889534116584</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.91381401352482</v>
+        <v>30.91381401352506</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N44" t="n">
-        <v>611.3358037124818</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O44" t="n">
         <v>531.622985386443</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>10.49622127555944</v>
+        <v>10.49622127555956</v>
       </c>
       <c r="K46" t="n">
-        <v>127.7099965486049</v>
+        <v>127.7099965486051</v>
       </c>
       <c r="L46" t="n">
-        <v>210.5192411731972</v>
+        <v>210.5192411731973</v>
       </c>
       <c r="M46" t="n">
-        <v>230.7090379731077</v>
+        <v>230.7090379731078</v>
       </c>
       <c r="N46" t="n">
-        <v>231.4774262022638</v>
+        <v>231.4774262022639</v>
       </c>
       <c r="O46" t="n">
-        <v>200.0835994520062</v>
+        <v>200.0835994520063</v>
       </c>
       <c r="P46" t="n">
-        <v>152.0889534116583</v>
+        <v>152.0889534116584</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.91381401352495</v>
+        <v>30.91381401352506</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
